--- a/AdvanceSelenium_E18/src/test/resources/TestScriptData_E18.xlsx
+++ b/AdvanceSelenium_E18/src/test/resources/TestScriptData_E18.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{878465AB-8D2B-434E-9891-39C60A987149}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{52095C75-89F5-4D8B-9E05-A970E52674EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11130" windowHeight="5145" activeTab="2" xr2:uid="{F44A0C23-FE82-4308-9287-F7E21036E186}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11280" windowHeight="5145" xr2:uid="{F44A0C23-FE82-4308-9287-F7E21036E186}"/>
   </bookViews>
   <sheets>
     <sheet name="DDT" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="WriteData" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K15"/>
+  <oleSize ref="A1:G15"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>Testcase_ID</t>
   </si>
@@ -96,6 +96,24 @@
   </si>
   <si>
     <t>20</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -474,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BBF36E-BBEB-4C37-B256-6943CBC20680}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,14 +534,29 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2000</v>
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
       <c r="D5" s="4"/>
     </row>
   </sheetData>
@@ -598,7 +631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F632A452-053F-48CC-A0BE-9F74EA950109}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
